--- a/开发文档/剧情脚本命令格式.xlsx
+++ b/开发文档/剧情脚本命令格式.xlsx
@@ -157,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[scriptName.method,...]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>脚本名+函数名，后跟自定义参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,6 +186,10 @@
   </si>
   <si>
     <t>player cmd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[scriptName.method,(…,…)]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,9 +483,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -495,25 +508,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -821,34 +821,34 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="36.25" customWidth="1"/>
-    <col min="3" max="3" width="36.25" style="22" customWidth="1"/>
+    <col min="3" max="3" width="36.25" style="15" customWidth="1"/>
     <col min="4" max="4" width="63.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -857,8 +857,8 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>37</v>
+      <c r="C3" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
@@ -871,8 +871,8 @@
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>38</v>
+      <c r="C4" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>21</v>
@@ -885,8 +885,8 @@
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>39</v>
+      <c r="C5" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>22</v>
@@ -899,7 +899,7 @@
       <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="13">
         <v>0</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -913,8 +913,8 @@
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>40</v>
+      <c r="C7" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>24</v>
@@ -927,8 +927,8 @@
       <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>41</v>
+      <c r="C8" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>25</v>
@@ -941,8 +941,8 @@
       <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>42</v>
+      <c r="C9" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>26</v>
@@ -955,8 +955,8 @@
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>41</v>
+      <c r="C10" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>27</v>
@@ -969,8 +969,8 @@
       <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>41</v>
+      <c r="C11" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>32</v>
@@ -983,8 +983,8 @@
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>43</v>
+      <c r="C12" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>28</v>
@@ -992,22 +992,22 @@
     </row>
     <row r="13" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="16"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="13"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -1016,7 +1016,7 @@
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="4" t="s">
         <v>5</v>
       </c>
@@ -1026,53 +1026,53 @@
         <v>34</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="20"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="20"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="20"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="20"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="20"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="20"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="21"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="10"/>
     </row>
   </sheetData>
